--- a/yandex-output-visibility.xlsx
+++ b/yandex-output-visibility.xlsx
@@ -19,13 +19,13 @@
     <t>Name of SE</t>
   </si>
   <si>
-    <t>2019-10-19</t>
+    <t>2019-12-18</t>
   </si>
   <si>
-    <t>2019-12-12</t>
+    <t>2019-12-30</t>
   </si>
   <si>
-    <t>2020-01-11</t>
+    <t>2020-01-17</t>
   </si>
   <si>
     <t>yandex</t>
@@ -414,13 +414,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>9.481177606177607</v>
+        <v>1.403225806451613</v>
       </c>
       <c r="D2">
-        <v>9.777992277992276</v>
+        <v>1.488591660110149</v>
       </c>
       <c r="E2">
-        <v>9.898648648648649</v>
+        <v>2.185680566483085</v>
       </c>
     </row>
   </sheetData>
